--- a/data/Fall2023/Changed missing values and alpha comparisons/DB1/DB1 Comparrisons (missing vs not missing and changing alpha).xlsx
+++ b/data/Fall2023/Changed missing values and alpha comparisons/DB1/DB1 Comparrisons (missing vs not missing and changing alpha).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikki\Desktop\Research\Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A920ADD-CC3E-4A37-8CDD-F29C26F36AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3507568B-7C5F-4B3E-B34C-927A4D269BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2129298C-101F-4385-BEF7-088C750FC47E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{2129298C-101F-4385-BEF7-088C750FC47E}"/>
   </bookViews>
   <sheets>
     <sheet name="Optimized Production Rates" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>No Missing (0.02) - no missing (0.002)</t>
-  </si>
-  <si>
-    <t>Difference between alpha values</t>
   </si>
   <si>
     <t>Difference between missing and no missing</t>
@@ -252,14 +249,35 @@
     <t>Standard Dev</t>
   </si>
   <si>
-    <t>Difference for values with same alpha (no missing - missing)</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Difference between alpha values (abs value)</t>
+  </si>
+  <si>
+    <t>Difference between missing and no missing (abs value)</t>
+  </si>
+  <si>
+    <t>**pretty similar**</t>
+  </si>
+  <si>
+    <t>Difference between alpha values (abs)</t>
+  </si>
+  <si>
+    <t>Difference for values with different alpha no missing (0.002 - 0.02)</t>
+  </si>
+  <si>
+    <t>Difference for values with different alpha missing (0.002 - 0.02)</t>
+  </si>
+  <si>
+    <t>Difference for values with different alpha  missing (0.002 - 0.02)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +316,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -307,7 +333,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -315,15 +341,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -334,16 +379,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{0D53CD1F-55E7-4A4C-92CF-627DA013722D}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{D911F80F-46A0-4717-A1F1-E88F851227FC}"/>
     <cellStyle name="Normal 4" xfId="4" xr:uid="{53AF9BA8-A272-47A6-9DA0-A77352B7457E}"/>
     <cellStyle name="Normal 5" xfId="1" xr:uid="{3A26F813-6178-4E1C-8A63-2F0F52AA5111}"/>
+    <cellStyle name="Style 1" xfId="5" xr:uid="{7CDEEA40-27E0-4184-94FD-D8E5ED089FCC}"/>
+    <cellStyle name="Style 2" xfId="6" xr:uid="{FB9DCF63-279D-4CC0-8B9A-D66DB238A7B5}"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -429,10 +489,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -732,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BB561B-8B5C-4FF2-8EA3-3372AD5C13CE}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,36 +807,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="7"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="G1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
@@ -790,595 +846,595 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="14">
+        <v>5.6958440562543157E-2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>5.7592095875525745E-2</v>
+      </c>
+      <c r="D3" s="14">
+        <v>5.6952178817641343E-2</v>
+      </c>
+      <c r="E3" s="14">
+        <v>5.7677676773573452E-2</v>
+      </c>
+      <c r="G3">
+        <f>ABS(B3-C3)</f>
+        <v>6.3365531298258809E-4</v>
+      </c>
+      <c r="H3">
+        <f>ABS(D3-E3)</f>
+        <v>7.2549795593210981E-4</v>
+      </c>
+      <c r="I3">
+        <f>ABS(B3-D3)</f>
+        <v>6.2617449018143034E-6</v>
+      </c>
+      <c r="J3">
+        <f>ABS(C3-E3)</f>
+        <v>8.558089804770741E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0.16477621757768376</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.1336788117708895</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.16266109889782701</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.12554697719875568</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G18" si="0">ABS(B4-C4)</f>
+        <v>3.1097405806794265E-2</v>
+      </c>
+      <c r="H4">
+        <f>ABS(D4-E4)</f>
+        <v>3.7114121699071329E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I18" si="1">ABS(B4-D4)</f>
+        <v>2.1151186798567534E-3</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J18" si="2">ABS(C4-E4)</f>
+        <v>8.131834572133817E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.42220899556474106</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.2900021854913139</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.41672451131321214</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.47813787814981179</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.13220681007342716</v>
+      </c>
+      <c r="H5">
+        <f>ABS(D5-E5)</f>
+        <v>6.1413366836599648E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>5.4844842515289205E-3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0.18813569265849789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.16590603326853773</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.15820920628284238</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.16398137403900861</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.15827121640304323</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>7.6968269856953486E-3</v>
+      </c>
+      <c r="H6">
+        <f>ABS(D6-E6)</f>
+        <v>5.7101576359653849E-3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1.9246592295291132E-3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>6.2010120200850505E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0.93785728026309167</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1.532022808949425</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.93039481851283534</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1.6211729889021187</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.59416552868633332</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H18" si="3">ABS(D7-E7)</f>
+        <v>0.69077817038928335</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>7.4624617502563328E-3</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>8.9150179952693698E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0.74991443334942864</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1.1529505035955598</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.83738393473024431</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1.2399132170705496</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.4030360702461312</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0.40252928234030527</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>8.7469501380815662E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>8.6962713474989739E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="14">
+        <v>6.7645111876891234E-2</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.18108914305749688</v>
+      </c>
+      <c r="D9" s="14">
+        <v>6.7370222549363062E-2</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.1741242682396591</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.11344403118060564</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>0.10675404569029603</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>2.7488932752817163E-4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>6.9648748178377795E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0.42252327841193715</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.36015301634947372</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.42363314112059941</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.36119400598673662</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>6.2370262062463433E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>6.2439135133862789E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1.109862708662257E-3</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>1.0409896372629013E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0.81716390381457393</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2.3414318292371337</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.82266297629948559</v>
+      </c>
+      <c r="E11" s="14">
+        <v>2.4381037482599419</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1.5242679254225597</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>1.6154407719604564</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>5.4990724849116601E-3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>9.667191902280825E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="14">
+        <v>0.4353572333784213</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0.4828738821766852</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.42722029424183627</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.46397364130072971</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>4.7516648798263894E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>3.6753347058893437E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>8.1369391365850308E-3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>1.8900240875955487E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0.30310139276677783</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0.57510034874516658</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.30132723852926691</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1.0591245818718642</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.27199895597838875</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>0.7577973433425973</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1.7741542375109276E-3</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0.48402423312669762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0.79857488309816571</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1.0068101697287688</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.79888926228003487</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1.0269846197164814</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.20823528663060309</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>0.22809535743644649</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>3.1437918186916214E-4</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>2.0174449987712562E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="14">
+        <v>0.69135095672928715</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.22797309354263168</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.67928456045542807</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.24963434300754492</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0.46337786318665547</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>0.42965021744788312</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1.2066396273859081E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>2.166124946491324E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0.30626861987556281</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.15127793265476244</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.30458021842854588</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.14622487335762419</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0.15499068722080037</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>0.15835534507092169</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>1.6884014470169295E-3</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>5.0530592971382571E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0.54859377899802519</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.78544389632424549</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.55450017222219883</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0.82834712247623377</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0.2368501173262203</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>0.27384695025403494</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>5.9063932241736339E-3</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>4.2903226151988272E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="14">
+        <v>0.12746637485851561</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0.12653447019193792</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.13210414084254268</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0.13121258121726656</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>9.3190466657769311E-4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>8.9155962527612265E-4</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>4.6377659840270702E-3</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>4.6781110253286406E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G19" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
-        <v>5.6958440562543157E-2</v>
-      </c>
-      <c r="C3">
-        <v>5.7592095875525745E-2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>5.6952178817641343E-2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5.7677676773573452E-2</v>
-      </c>
-      <c r="G3">
-        <f>B3-C3</f>
-        <v>-6.3365531298258809E-4</v>
-      </c>
-      <c r="H3">
-        <f>D3-E3</f>
-        <v>-7.2549795593210981E-4</v>
-      </c>
-      <c r="I3">
-        <f>B3-D3</f>
-        <v>6.2617449018143034E-6</v>
-      </c>
-      <c r="J3">
-        <f>C3-E3</f>
-        <v>-8.558089804770741E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.16477621757768376</v>
-      </c>
-      <c r="C4">
-        <v>0.1336788117708895</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.16266109889782701</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.12554697719875568</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G18" si="0">B4-C4</f>
-        <v>3.1097405806794265E-2</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H18" si="1">D4-E4</f>
-        <v>3.7114121699071329E-2</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I18" si="2">B4-D4</f>
-        <v>2.1151186798567534E-3</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J18" si="3">C4-E4</f>
-        <v>8.131834572133817E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.42220899556474106</v>
-      </c>
-      <c r="C5">
-        <v>0.2900021854913139</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.41672451131321214</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.47813787814981179</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.13220681007342716</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>-6.1413366836599648E-2</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
-        <v>5.4844842515289205E-3</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="3"/>
-        <v>-0.18813569265849789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.16590603326853773</v>
-      </c>
-      <c r="C6">
-        <v>0.15820920628284238</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.16398137403900861</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.15827121640304323</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>7.6968269856953486E-3</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>5.7101576359653849E-3</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
-        <v>1.9246592295291132E-3</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="3"/>
-        <v>-6.2010120200850505E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.93785728026309167</v>
-      </c>
-      <c r="C7">
-        <v>1.532022808949425</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.93039481851283534</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1.6211729889021187</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>-0.59416552868633332</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>-0.69077817038928335</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
-        <v>7.4624617502563328E-3</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
-        <v>-8.9150179952693698E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.74991443334942864</v>
-      </c>
-      <c r="C8">
-        <v>1.1529505035955598</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.83738393473024431</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.2399132170705496</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>-0.4030360702461312</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>-0.40252928234030527</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
-        <v>-8.7469501380815662E-2</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>-8.6962713474989739E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3">
-        <v>6.7645111876891234E-2</v>
-      </c>
-      <c r="C9">
-        <v>0.18108914305749688</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6.7370222549363062E-2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.1741242682396591</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>-0.11344403118060564</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>-0.10675404569029603</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
-        <v>2.7488932752817163E-4</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
-        <v>6.9648748178377795E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.42252327841193715</v>
-      </c>
-      <c r="C10">
-        <v>0.36015301634947372</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.42363314112059941</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.36119400598673662</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>6.2370262062463433E-2</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>6.2439135133862789E-2</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
-        <v>-1.109862708662257E-3</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>-1.0409896372629013E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.81716390381457393</v>
-      </c>
-      <c r="C11">
-        <v>2.3414318292371337</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.82266297629948559</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.4381037482599419</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>-1.5242679254225597</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>-1.6154407719604564</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
-        <v>-5.4990724849116601E-3</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="3"/>
-        <v>-9.667191902280825E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.4353572333784213</v>
-      </c>
-      <c r="C12">
-        <v>0.4828738821766852</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.42722029424183627</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.46397364130072971</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>-4.7516648798263894E-2</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>-3.6753347058893437E-2</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="2"/>
-        <v>8.1369391365850308E-3</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>1.8900240875955487E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.30310139276677783</v>
-      </c>
-      <c r="C13">
-        <v>0.57510034874516658</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.30132723852926691</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1.0591245818718642</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>-0.27199895597838875</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>-0.7577973433425973</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
-        <v>1.7741542375109276E-3</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
-        <v>-0.48402423312669762</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.79857488309816571</v>
-      </c>
-      <c r="C14">
-        <v>1.0068101697287688</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.79888926228003487</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1.0269846197164814</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>-0.20823528663060309</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>-0.22809535743644649</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
-        <v>-3.1437918186916214E-4</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>-2.0174449987712562E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.69135095672928715</v>
-      </c>
-      <c r="C15">
-        <v>0.22797309354263168</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.67928456045542807</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.24963434300754492</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0.46337786318665547</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>0.42965021744788312</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
-        <v>1.2066396273859081E-2</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>-2.166124946491324E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.30626861987556281</v>
-      </c>
-      <c r="C16">
-        <v>0.15127793265476244</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.30458021842854588</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.14622487335762419</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>0.15499068722080037</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>0.15835534507092169</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
-        <v>1.6884014470169295E-3</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
-        <v>5.0530592971382571E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.54859377899802519</v>
-      </c>
-      <c r="C17">
-        <v>0.78544389632424549</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.55450017222219883</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.82834712247623377</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>-0.2368501173262203</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>-0.27384695025403494</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
-        <v>-5.9063932241736339E-3</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>-4.2903226151988272E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.12746637485851561</v>
-      </c>
-      <c r="C18">
-        <v>0.12653447019193792</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.13210414084254268</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.13121258121726656</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>9.3190466657769311E-4</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>8.9155962527612265E-4</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
-        <v>-4.6377659840270702E-3</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="3"/>
-        <v>-4.6781110253286406E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20">
         <f>AVERAGE(G3:G18)</f>
-        <v>-0.15921727872372968</v>
+        <v>0.26580124872403138</v>
       </c>
       <c r="H20">
         <f t="shared" ref="H20:J20" si="4">AVERAGE(H3:H18)</f>
-        <v>-0.21749834979074151</v>
+        <v>0.30426841686736406</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>-4.0002005553678981E-3</v>
+        <v>9.1169213151895325E-3</v>
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>-6.2281271622379751E-2</v>
+        <v>6.7162522817762915E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21">
         <f>MEDIAN(G3:G18)</f>
-        <v>-2.4075152055623241E-2</v>
+        <v>0.14359874864711375</v>
       </c>
       <c r="H21">
         <f t="shared" ref="H21:J21" si="5">MEDIAN(H3:H18)</f>
-        <v>-4.9083356947746543E-2</v>
+        <v>0.13255469538060888</v>
       </c>
       <c r="I21">
         <f t="shared" si="5"/>
-        <v>9.8164538727255057E-4</v>
+        <v>3.3764423319419118E-3</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>-1.2426280506520601E-2</v>
+        <v>1.9537345431834025E-2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" cm="1">
         <f t="array" ref="G22">MIN(ABS(G3:G18))</f>
@@ -1399,7 +1455,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" cm="1">
         <f t="array" ref="G23">MAX(ABS((G3:G18)))</f>
@@ -1416,6 +1472,16 @@
       <c r="J23" cm="1">
         <f t="array" ref="J23">MAX(ABS((J3:J18)))</f>
         <v>0.48402423312669762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1426,6 +1492,46 @@
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:J19"/>
   </mergeCells>
+  <conditionalFormatting sqref="J3:J18">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I18">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1434,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA9E5C8-F865-4E7B-9150-88C9C8EE00B2}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView zoomScale="82" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1453,21 +1559,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="G1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1492,10 +1598,10 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
         <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1515,19 +1621,19 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f>B3-C3</f>
+        <f>ABS(B3-C3)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>D3-E3</f>
+        <f>ABS(D3-E3)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>B3-D3</f>
+        <f>ABS(B3-D3)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>C3-E3</f>
+        <f>ABS(C3-E3)</f>
         <v>0</v>
       </c>
     </row>
@@ -1548,19 +1654,19 @@
         <v>0.1494110628458015</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G18" si="0">B4-C4</f>
+        <f t="shared" ref="G4:G17" si="0">ABS(B4-C4)</f>
         <v>0.3258152951277602</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H18" si="1">D4-E4</f>
+        <f t="shared" ref="H4:H18" si="1">ABS(D4-E4)</f>
         <v>0.42123127910126346</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:J18" si="2">B4-D4</f>
+        <f t="shared" ref="I4:I18" si="2">ABS(B4-D4)</f>
         <v>1.4863779668451982E-2</v>
       </c>
       <c r="J4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J4:J18" si="3">ABS(C4-E4)</f>
         <v>0.11027976364195527</v>
       </c>
     </row>
@@ -1571,18 +1677,18 @@
       <c r="B5" s="3">
         <v>1.1617719375330431</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <v>4.5172932657967522</v>
       </c>
       <c r="D5" s="3">
         <v>1.1290153609601821</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="11">
         <v>-0.11131884974850499</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>-3.3555213282637091</v>
+        <v>3.3555213282637091</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -1593,7 +1699,7 @@
         <v>3.2756576572861018E-2</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.6286121155452573</v>
       </c>
     </row>
@@ -1615,18 +1721,18 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>-0.90750803498736055</v>
+        <v>0.90750803498736055</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>-0.83224525624368195</v>
+        <v>0.83224525624368195</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>-8.9474602691674843E-4</v>
+        <v>8.9474602691674843E-4</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.4368032716761734E-2</v>
       </c>
     </row>
@@ -1637,7 +1743,7 @@
       <c r="B7" s="3">
         <v>0.45551893074677169</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="10">
         <v>0.76613695065392151</v>
       </c>
       <c r="D7" s="3">
@@ -1648,18 +1754,18 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>-0.31061801990714982</v>
+        <v>0.31061801990714982</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>-1.3111075710621034E-2</v>
+        <v>1.3111075710621034E-2</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>-1.2317290151628302E-2</v>
+        <v>1.2317290151628302E-2</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28518965404490049</v>
       </c>
     </row>
@@ -1681,19 +1787,19 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>-2.2926294672314214</v>
+        <v>2.2926294672314214</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>-3.364202189692064</v>
+        <v>3.364202189692064</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
         <v>2.6405597158633998E-2</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
-        <v>-1.0451671253020085</v>
+        <f t="shared" si="3"/>
+        <v>1.0451671253020085</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1714,18 +1820,18 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>-1.7647779530318837</v>
+        <v>1.7647779530318837</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>-1.707404211505497</v>
+        <v>1.707404211505497</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
         <v>2.1133683512364332E-2</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8507425038750966E-2</v>
       </c>
     </row>
@@ -1747,18 +1853,18 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>-0.98045727487076451</v>
+        <v>0.98045727487076451</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>-0.92458467867984118</v>
+        <v>0.92458467867984118</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
         <v>2.3068702733802793E-3</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8179466464303609E-2</v>
       </c>
     </row>
@@ -1788,10 +1894,10 @@
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>-1.4502157111119129E-2</v>
+        <v>1.4502157111119129E-2</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.50968826503181108</v>
       </c>
     </row>
@@ -1813,18 +1919,18 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>-0.69319033932813645</v>
+        <v>0.69319033932813645</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>-6.7424302648526613E-3</v>
+        <v>6.7424302648526613E-3</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
         <v>0.10394812041662582</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79039602947990961</v>
       </c>
     </row>
@@ -1846,19 +1952,19 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>-1.1300560026099364</v>
+        <v>1.1300560026099364</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>-1.710492939183923</v>
+        <v>1.710492939183923</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>-1.8051268419347843E-2</v>
+        <v>1.8051268419347843E-2</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
-        <v>-0.59848820499333444</v>
+        <f t="shared" si="3"/>
+        <v>0.59848820499333444</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1879,19 +1985,19 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>-1.0093002086968368</v>
+        <v>1.0093002086968368</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>-1.1521818504538617</v>
+        <v>1.1521818504538617</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
         <v>1.2345514188797507E-2</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
-        <v>-0.13053612756822752</v>
+        <f t="shared" si="3"/>
+        <v>0.13053612756822752</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1920,11 +2026,11 @@
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>-5.3281032796645422E-3</v>
+        <v>5.3281032796645422E-3</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
-        <v>-0.50376655231227474</v>
+        <f t="shared" si="3"/>
+        <v>0.50376655231227474</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1945,19 +2051,19 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>-2.1988762818611451E-2</v>
+        <v>2.1988762818611451E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>-3.9625068944130815E-2</v>
+        <v>3.9625068944130815E-2</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
         <v>1.0758021241199289E-2</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
-        <v>-6.8782848843200739E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.8782848843200739E-3</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1978,19 +2084,19 @@
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>-2.3817372035376407</v>
+        <v>2.3817372035376407</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>-2.4384504163064311</v>
+        <v>2.4384504163064311</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>-7.4973277750636225E-3</v>
+        <v>7.4973277750636225E-3</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
-        <v>-6.4210540543854222E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.4210540543854222E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2010,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G4:G18" si="4">B18-C18</f>
         <v>0</v>
       </c>
       <c r="H18">
@@ -2022,86 +2128,86 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20">
         <f>AVERAGE(G3:G18)</f>
-        <v>-0.56297577921516406</v>
+        <v>1.2929972951952673</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:J20" si="3">AVERAGE(H3:H18)</f>
-        <v>-0.31171036383447304</v>
+        <f t="shared" ref="H20:J20" si="5">AVERAGE(H3:H18)</f>
+        <v>1.2119196507886398</v>
       </c>
       <c r="I20">
-        <f t="shared" si="3"/>
-        <v>1.0370454391785877E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.7694315987253403E-2</v>
       </c>
       <c r="J20">
-        <f t="shared" si="3"/>
-        <v>0.26163586977247694</v>
+        <f t="shared" si="5"/>
+        <v>0.5552667242229794</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21">
         <f>MEDIAN(G3:G18)</f>
-        <v>-0.8003491871577485</v>
+        <v>0.99487874178380065</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21:J21" si="4">MEDIAN(H3:H18)</f>
-        <v>-2.6368072327375924E-2</v>
+        <f t="shared" ref="H21:J21" si="6">MEDIAN(H3:H18)</f>
+        <v>1.0383832645668514</v>
       </c>
       <c r="I21">
-        <f t="shared" si="4"/>
-        <v>1.1534351366901396E-3</v>
+        <f t="shared" si="6"/>
+        <v>1.2331402170212905E-2</v>
       </c>
       <c r="J21">
-        <f t="shared" si="4"/>
-        <v>2.9089733232151804E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.1204079456050914</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" cm="1">
-        <f t="array" ref="G22">MIN(ABS(G3:G18))</f>
-        <v>0</v>
+        <f t="array" ref="G22">MIN(ABS(G4:G17))</f>
+        <v>2.1988762818611451E-2</v>
       </c>
       <c r="H22" cm="1">
-        <f t="array" ref="H22">MIN(ABS(H3:H18))</f>
-        <v>0</v>
+        <f t="array" ref="H22">MIN(ABS(H4:H17))</f>
+        <v>6.7424302648526613E-3</v>
       </c>
       <c r="I22" cm="1">
-        <f t="array" ref="I22">MIN(ABS(I3:I18))</f>
-        <v>0</v>
+        <f t="array" ref="I22">MIN(ABS(I4:I17))</f>
+        <v>8.9474602691674843E-4</v>
       </c>
       <c r="J22" cm="1">
-        <f t="array" ref="J22">MIN(ABS(J3:J18))</f>
-        <v>0</v>
+        <f t="array" ref="J22">MIN(ABS(J4:J17))</f>
+        <v>6.8782848843200739E-3</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" cm="1">
         <f t="array" ref="G23">MAX(ABS((G3:G18)))</f>
@@ -2128,6 +2234,46 @@
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:J19"/>
   </mergeCells>
+  <conditionalFormatting sqref="G3:G18">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H18">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2136,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140E906F-1F88-43EF-9A2D-D9A3440087B5}">
   <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="91" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AB59" sqref="AB59"/>
+    <sheetView topLeftCell="A39" zoomScale="58" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:Q61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2150,48 +2296,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="S1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="S1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -2242,7 +2388,7 @@
         <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T2" t="s">
         <v>5</v>
@@ -3958,48 +4104,48 @@
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="S20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="S20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
@@ -4050,7 +4196,7 @@
         <v>20</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>5</v>
@@ -5766,48 +5912,48 @@
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="S39" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="S39" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="8"/>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="8"/>
-      <c r="AG39" s="8"/>
-      <c r="AH39" s="8"/>
-      <c r="AI39" s="8"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>5</v>
@@ -5858,7 +6004,7 @@
         <v>20</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>5</v>
@@ -6292,7 +6438,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD43">
+      <c r="AD43" s="6">
         <f t="shared" si="4"/>
         <v>-5.9141067043727151</v>
       </c>
@@ -8086,115 +8232,115 @@
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="S58" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="7"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="7"/>
-      <c r="Z58" s="7"/>
-      <c r="AA58" s="7"/>
-      <c r="AB58" s="7"/>
-      <c r="AC58" s="7"/>
-      <c r="AD58" s="7"/>
+      <c r="A58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="S58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="8"/>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B59">
         <f>AVERAGE(B41:Q56)</f>
         <v>-7.1690779557970316E-4</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D59">
         <f>MEDIAN(B41:Q56)</f>
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59">
         <f>MIN(B41:Q56)</f>
         <v>-0.25178379077303037</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H59">
         <f>MAX(B41:Q56)</f>
         <v>9.6927475582297085E-2</v>
       </c>
       <c r="I59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J59" cm="1">
         <f t="array" ref="J59">MIN(IF(B41:P55&lt;&gt;0,ABS(B41:P55)))</f>
         <v>7.6084933578746128E-5</v>
       </c>
       <c r="K59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L59" cm="1">
         <f t="array" ref="L59">MAX(ABS(B41:Q56))</f>
         <v>0.25178379077303037</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T59">
         <f>AVERAGE(T41:AI56)</f>
         <v>-2.5703570076404156E-2</v>
       </c>
       <c r="U59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V59">
         <f>MEDIAN(T41:AI56)</f>
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X59">
         <f>MIN(T41:AI56)</f>
         <v>-5.9141067043727151</v>
       </c>
       <c r="Y59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z59">
         <f>MAX(T41:AI56)</f>
         <v>0.83350383216744639</v>
       </c>
       <c r="AA59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB59" cm="1">
         <f t="array" ref="AB59">MIN(IF(T41:AH55&lt;&gt;0,ABS(T41:AH55)))</f>
         <v>1.6246224619786923E-3</v>
       </c>
       <c r="AC59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD59" cm="1">
         <f t="array" ref="AD59">MAX(ABS(T41:AI56))</f>
@@ -8202,27 +8348,27 @@
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
+      <c r="A61" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
       <c r="S61" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="T61" s="8"/>
       <c r="U61" s="8"/>
@@ -8243,7 +8389,7 @@
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>5</v>
@@ -8294,7 +8440,7 @@
         <v>20</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T62" s="1" t="s">
         <v>5</v>
@@ -8417,67 +8563,67 @@
         <v>5</v>
       </c>
       <c r="T63">
-        <f t="shared" ref="T63:T78" si="34">B3-T3</f>
+        <f>B3-T3</f>
         <v>0</v>
       </c>
       <c r="U63">
-        <f t="shared" ref="U63:U78" si="35">C3-U3</f>
+        <f t="shared" ref="U63:U78" si="34">C3-U3</f>
         <v>0</v>
       </c>
       <c r="V63">
-        <f t="shared" ref="V63:V78" si="36">D3-V3</f>
+        <f t="shared" ref="V63:V78" si="35">D3-V3</f>
         <v>0</v>
       </c>
       <c r="W63">
-        <f t="shared" ref="W63:W78" si="37">E3-W3</f>
+        <f t="shared" ref="W63:W78" si="36">E3-W3</f>
         <v>0</v>
       </c>
       <c r="X63">
-        <f t="shared" ref="X63:X78" si="38">F3-X3</f>
+        <f t="shared" ref="X63:X78" si="37">F3-X3</f>
         <v>0</v>
       </c>
       <c r="Y63">
-        <f t="shared" ref="Y63:Y78" si="39">G3-Y3</f>
+        <f t="shared" ref="Y63:Y78" si="38">G3-Y3</f>
         <v>0</v>
       </c>
       <c r="Z63">
-        <f t="shared" ref="Z63:Z78" si="40">H3-Z3</f>
+        <f t="shared" ref="Z63:Z78" si="39">H3-Z3</f>
         <v>0</v>
       </c>
       <c r="AA63">
-        <f t="shared" ref="AA63:AA78" si="41">I3-AA3</f>
+        <f t="shared" ref="AA63:AA78" si="40">I3-AA3</f>
         <v>0</v>
       </c>
       <c r="AB63">
-        <f t="shared" ref="AB63:AB78" si="42">J3-AB3</f>
+        <f t="shared" ref="AB63:AB78" si="41">J3-AB3</f>
         <v>0</v>
       </c>
       <c r="AC63">
-        <f t="shared" ref="AC63:AC78" si="43">K3-AC3</f>
+        <f t="shared" ref="AC63:AC78" si="42">K3-AC3</f>
         <v>0</v>
       </c>
       <c r="AD63">
-        <f t="shared" ref="AD63:AD78" si="44">L3-AD3</f>
+        <f t="shared" ref="AD63:AD78" si="43">L3-AD3</f>
         <v>0</v>
       </c>
       <c r="AE63">
-        <f t="shared" ref="AE63:AE78" si="45">M3-AE3</f>
+        <f t="shared" ref="AE63:AE78" si="44">M3-AE3</f>
         <v>0</v>
       </c>
       <c r="AF63">
-        <f t="shared" ref="AF63:AF78" si="46">N3-AF3</f>
+        <f t="shared" ref="AF63:AF78" si="45">N3-AF3</f>
         <v>0</v>
       </c>
       <c r="AG63">
-        <f t="shared" ref="AG63:AG78" si="47">O3-AG3</f>
+        <f t="shared" ref="AG63:AG78" si="46">O3-AG3</f>
         <v>0</v>
       </c>
       <c r="AH63">
-        <f t="shared" ref="AH63:AH78" si="48">P3-AH3</f>
+        <f t="shared" ref="AH63:AH78" si="47">P3-AH3</f>
         <v>0</v>
       </c>
       <c r="AI63">
-        <f t="shared" ref="AI63:AI78" si="49">Q3-AI3</f>
+        <f t="shared" ref="AI63:AI78" si="48">Q3-AI3</f>
         <v>0</v>
       </c>
     </row>
@@ -8553,67 +8699,67 @@
         <v>6</v>
       </c>
       <c r="T64">
+        <f t="shared" ref="T63:T78" si="49">B4-T4</f>
+        <v>0</v>
+      </c>
+      <c r="U64">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="X64">
+      <c r="Y64">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="Y64">
+      <c r="Z64">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Z64">
+      <c r="AA64">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AA64">
+      <c r="AB64">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AB64">
+      <c r="AC64">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AC64">
+      <c r="AD64">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AD64">
+      <c r="AE64">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AE64">
+      <c r="AF64">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AF64">
+      <c r="AG64">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AG64">
+      <c r="AH64">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AH64">
+      <c r="AI64">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AI64">
-        <f t="shared" si="49"/>
         <v>-0.29039160172285139</v>
       </c>
     </row>
@@ -8689,67 +8835,67 @@
         <v>7</v>
       </c>
       <c r="T65">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="U65">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="X65">
+      <c r="Y65">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="Y65">
+      <c r="Z65">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Z65">
+      <c r="AA65">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AA65">
+      <c r="AB65">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AB65">
+      <c r="AC65">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AC65">
+      <c r="AD65" s="6">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AD65">
+        <v>-4.6944387946323305</v>
+      </c>
+      <c r="AE65">
         <f t="shared" si="44"/>
-        <v>-4.6944387946323305</v>
-      </c>
-      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AF65">
+      <c r="AG65">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AG65">
+      <c r="AH65">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AH65">
+      <c r="AI65">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AI65">
-        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -8825,67 +8971,67 @@
         <v>8</v>
       </c>
       <c r="T66">
+        <f t="shared" si="49"/>
+        <v>-1.0273643216343546</v>
+      </c>
+      <c r="U66">
         <f t="shared" si="34"/>
-        <v>-1.0273643216343546</v>
-      </c>
-      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="X66">
+      <c r="Y66">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="Y66">
+        <v>-4.3966826350114729E-3</v>
+      </c>
+      <c r="Z66">
         <f t="shared" si="39"/>
-        <v>-4.3966826350114729E-3</v>
-      </c>
-      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AA66">
+      <c r="AB66">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AB66">
+      <c r="AC66">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AC66">
+        <v>7.3987201286038223E-2</v>
+      </c>
+      <c r="AD66">
         <f t="shared" si="43"/>
-        <v>7.3987201286038223E-2</v>
-      </c>
-      <c r="AD66">
+        <v>-0.33480389254376508</v>
+      </c>
+      <c r="AE66">
         <f t="shared" si="44"/>
-        <v>-0.33480389254376508</v>
-      </c>
-      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AF66">
+      <c r="AG66">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AG66">
+        <v>-0.15137614735333327</v>
+      </c>
+      <c r="AH66">
         <f t="shared" si="47"/>
-        <v>-0.15137614735333327</v>
-      </c>
-      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AI66">
-        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -8961,67 +9107,67 @@
         <v>9</v>
       </c>
       <c r="T67">
+        <f t="shared" si="49"/>
+        <v>0.46124419964925401</v>
+      </c>
+      <c r="U67">
         <f t="shared" si="34"/>
-        <v>0.46124419964925401</v>
-      </c>
-      <c r="U67">
+        <v>0.21802335379453952</v>
+      </c>
+      <c r="V67">
         <f t="shared" si="35"/>
-        <v>0.21802335379453952</v>
-      </c>
-      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="X67">
+      <c r="Y67">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="Y67">
+      <c r="Z67">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Z67">
+      <c r="AA67">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AA67">
+      <c r="AB67">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AB67">
+      <c r="AC67">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AC67">
+      <c r="AD67">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AD67">
+        <v>-0.11737271999999721</v>
+      </c>
+      <c r="AE67">
         <f t="shared" si="44"/>
-        <v>-0.11737271999999721</v>
-      </c>
-      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AF67">
+      <c r="AG67">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AG67">
+      <c r="AH67">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AH67">
+      <c r="AI67">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AI67">
-        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -9069,7 +9215,7 @@
         <f t="shared" si="27"/>
         <v>0.8342572558917134</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="6">
         <f t="shared" si="28"/>
         <v>-3.1668700659618665</v>
       </c>
@@ -9097,67 +9243,67 @@
         <v>10</v>
       </c>
       <c r="T68">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="U68">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="X68">
+      <c r="Y68">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="Y68">
+      <c r="Z68">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Z68">
+      <c r="AA68">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AA68">
+      <c r="AB68">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AB68">
+      <c r="AC68">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AC68">
+        <v>0.67516756300979242</v>
+      </c>
+      <c r="AD68" s="6">
         <f t="shared" si="43"/>
-        <v>0.67516756300979242</v>
-      </c>
-      <c r="AD68">
+        <v>-2.0815824430213898</v>
+      </c>
+      <c r="AE68">
         <f t="shared" si="44"/>
-        <v>-2.0815824430213898</v>
-      </c>
-      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AF68">
+      <c r="AG68">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AG68">
+      <c r="AH68">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AH68">
+      <c r="AI68">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AI68">
-        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -9233,67 +9379,67 @@
         <v>11</v>
       </c>
       <c r="T69">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="U69">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="X69">
+      <c r="Y69">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="Y69">
+      <c r="Z69">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Z69">
+      <c r="AA69">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AA69">
+        <v>0.12293261919084997</v>
+      </c>
+      <c r="AB69">
         <f t="shared" si="41"/>
-        <v>0.12293261919084997</v>
-      </c>
-      <c r="AB69">
+        <v>-0.15593950088674605</v>
+      </c>
+      <c r="AC69">
         <f t="shared" si="42"/>
-        <v>-0.15593950088674605</v>
-      </c>
-      <c r="AC69">
+        <v>-0.11094554246539393</v>
+      </c>
+      <c r="AD69">
         <f t="shared" si="43"/>
-        <v>-0.11094554246539393</v>
-      </c>
-      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AE69">
+      <c r="AF69">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AF69">
+      <c r="AG69">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AG69">
+      <c r="AH69">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AH69">
+      <c r="AI69">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AI69">
-        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -9369,67 +9515,67 @@
         <v>12</v>
       </c>
       <c r="T70">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="U70">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="X70">
+      <c r="Y70">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="Y70">
+      <c r="Z70">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="Z70">
+        <v>-1.0184047959546072</v>
+      </c>
+      <c r="AA70">
         <f t="shared" si="40"/>
-        <v>-1.0184047959546072</v>
-      </c>
-      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AB70">
+      <c r="AC70">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AC70">
+      <c r="AD70">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AD70">
+      <c r="AE70">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AE70">
+      <c r="AF70">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AF70">
+      <c r="AG70">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AG70">
+        <v>-0.49618354698049505</v>
+      </c>
+      <c r="AH70">
         <f t="shared" si="47"/>
-        <v>-0.49618354698049505</v>
-      </c>
-      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AI70">
-        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -9477,7 +9623,7 @@
         <f t="shared" si="27"/>
         <v>-1.1628045104470701</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="6">
         <f t="shared" si="28"/>
         <v>4.2931264533427349</v>
       </c>
@@ -9505,67 +9651,67 @@
         <v>13</v>
       </c>
       <c r="T71">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="U71">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="X71">
+      <c r="Y71">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="Y71">
+        <v>-1.7799145546275541E-2</v>
+      </c>
+      <c r="Z71">
         <f t="shared" si="39"/>
-        <v>-1.7799145546275541E-2</v>
-      </c>
-      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AA71">
+      <c r="AB71">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AB71">
+      <c r="AC71">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AC71">
+        <v>-1.287007726258059</v>
+      </c>
+      <c r="AD71" s="6">
         <f t="shared" si="43"/>
-        <v>-1.287007726258059</v>
-      </c>
-      <c r="AD71">
+        <v>3.9871841006252708</v>
+      </c>
+      <c r="AE71">
         <f t="shared" si="44"/>
-        <v>3.9871841006252708</v>
-      </c>
-      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AF71">
+        <v>0.36603500008797907</v>
+      </c>
+      <c r="AG71">
         <f t="shared" si="46"/>
-        <v>0.36603500008797907</v>
-      </c>
-      <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AH71">
+      <c r="AI71">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AI71">
-        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -9641,67 +9787,67 @@
         <v>14</v>
       </c>
       <c r="T72">
+        <f t="shared" si="49"/>
+        <v>-0.82604165851078837</v>
+      </c>
+      <c r="U72">
         <f t="shared" si="34"/>
-        <v>-0.82604165851078837</v>
-      </c>
-      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="X72">
+      <c r="Y72">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="Y72">
+      <c r="Z72">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Z72">
+      <c r="AA72">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AA72">
+      <c r="AB72">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AB72">
+      <c r="AC72">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AC72">
+        <v>-1.1787744652789867E-2</v>
+      </c>
+      <c r="AD72">
         <f t="shared" si="43"/>
-        <v>-1.1787744652789867E-2</v>
-      </c>
-      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AE72">
+      <c r="AF72">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AF72">
+      <c r="AG72">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AG72">
+      <c r="AH72">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AH72">
+      <c r="AI72">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AI72">
-        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -9777,67 +9923,67 @@
         <v>15</v>
       </c>
       <c r="T73">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="U73">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="X73">
+      <c r="Y73">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="Y73">
+      <c r="Z73">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Z73">
+      <c r="AA73">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AA73">
+      <c r="AB73">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AB73">
+      <c r="AC73">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AC73">
+        <v>1.5167861058637238</v>
+      </c>
+      <c r="AD73">
         <f t="shared" si="43"/>
-        <v>1.5167861058637238</v>
-      </c>
-      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AE73">
+      <c r="AF73">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AF73">
+      <c r="AG73">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AG73">
+      <c r="AH73">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AH73">
+      <c r="AI73">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AI73">
-        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -9913,67 +10059,67 @@
         <v>16</v>
       </c>
       <c r="T74">
+        <f t="shared" si="49"/>
+        <v>-1.0651762760102221</v>
+      </c>
+      <c r="U74">
         <f t="shared" si="34"/>
-        <v>-1.0651762760102221</v>
-      </c>
-      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="X74">
+      <c r="Y74">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="Y74">
+        <v>-3.729018668045625E-2</v>
+      </c>
+      <c r="Z74">
         <f t="shared" si="39"/>
-        <v>-3.729018668045625E-2</v>
-      </c>
-      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AA74">
+      <c r="AB74">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AB74">
+      <c r="AC74">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AC74">
+      <c r="AD74">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AD74">
+        <v>0.12147099021611379</v>
+      </c>
+      <c r="AE74">
         <f t="shared" si="44"/>
-        <v>0.12147099021611379</v>
-      </c>
-      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AF74">
+      <c r="AG74">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AG74">
+      <c r="AH74">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AH74">
+      <c r="AI74">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AI74">
-        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -10049,67 +10195,67 @@
         <v>17</v>
       </c>
       <c r="T75">
+        <f t="shared" si="49"/>
+        <v>1.9340437475992489</v>
+      </c>
+      <c r="U75">
         <f t="shared" si="34"/>
-        <v>1.9340437475992489</v>
-      </c>
-      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="X75">
+      <c r="Y75">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="Y75">
+      <c r="Z75">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Z75">
+      <c r="AA75">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AA75">
+      <c r="AB75">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AB75">
+      <c r="AC75">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AC75">
+      <c r="AD75">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AD75">
+        <v>0.35025297977697256</v>
+      </c>
+      <c r="AE75">
         <f t="shared" si="44"/>
-        <v>0.35025297977697256</v>
-      </c>
-      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AF75">
+      <c r="AG75">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AG75">
+      <c r="AH75">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AH75">
+      <c r="AI75">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AI75">
-        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -10185,67 +10331,67 @@
         <v>18</v>
       </c>
       <c r="T76">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="U76">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="X76">
+        <v>0.87758487497654603</v>
+      </c>
+      <c r="Y76">
         <f t="shared" si="38"/>
-        <v>0.87758487497654603</v>
-      </c>
-      <c r="Y76">
+        <v>-0.19047393433407719</v>
+      </c>
+      <c r="Z76">
         <f t="shared" si="39"/>
-        <v>-0.19047393433407719</v>
-      </c>
-      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AA76">
+      <c r="AB76">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AB76">
+      <c r="AC76">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AC76">
+      <c r="AD76">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AD76">
+        <v>-0.55437201115970691</v>
+      </c>
+      <c r="AE76">
         <f t="shared" si="44"/>
-        <v>-0.55437201115970691</v>
-      </c>
-      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AF76">
+        <v>-0.97919910037317703</v>
+      </c>
+      <c r="AG76">
         <f t="shared" si="46"/>
-        <v>-0.97919910037317703</v>
-      </c>
-      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AH76">
+      <c r="AI76">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AI76">
-        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -10321,67 +10467,67 @@
         <v>19</v>
       </c>
       <c r="T77">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="U77">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="X77">
+      <c r="Y77">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="Y77">
+      <c r="Z77">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Z77">
+      <c r="AA77">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AA77">
+      <c r="AB77">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AB77">
+      <c r="AC77">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AC77">
+        <v>0.38538314527800388</v>
+      </c>
+      <c r="AD77">
         <f t="shared" si="43"/>
-        <v>0.38538314527800388</v>
-      </c>
-      <c r="AD77">
+        <v>-1.2550287251237207</v>
+      </c>
+      <c r="AE77">
         <f t="shared" si="44"/>
-        <v>-1.2550287251237207</v>
-      </c>
-      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AF77">
+        <v>-0.82247659985938282</v>
+      </c>
+      <c r="AG77">
         <f t="shared" si="46"/>
-        <v>-0.82247659985938282</v>
-      </c>
-      <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AH77">
+      <c r="AI77">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AI77">
-        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -10457,180 +10603,180 @@
         <v>20</v>
       </c>
       <c r="T78">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="U78">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="X78">
+      <c r="Y78">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="Y78">
+      <c r="Z78">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Z78">
+      <c r="AA78">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AA78">
+      <c r="AB78">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AB78">
+      <c r="AC78">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AC78">
+      <c r="AD78">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AD78">
+      <c r="AE78">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AE78">
+      <c r="AF78">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AF78">
+      <c r="AG78">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AG78">
+      <c r="AH78">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AH78">
+      <c r="AI78">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AI78">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A80" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="S80" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T80" s="7"/>
-      <c r="U80" s="7"/>
-      <c r="V80" s="7"/>
-      <c r="W80" s="7"/>
-      <c r="X80" s="7"/>
-      <c r="Y80" s="7"/>
-      <c r="Z80" s="7"/>
-      <c r="AA80" s="7"/>
-      <c r="AB80" s="7"/>
-      <c r="AC80" s="7"/>
-      <c r="AD80" s="7"/>
+      <c r="A80" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="S80" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8"/>
+      <c r="V80" s="8"/>
+      <c r="W80" s="8"/>
+      <c r="X80" s="8"/>
+      <c r="Y80" s="8"/>
+      <c r="Z80" s="8"/>
+      <c r="AA80" s="8"/>
+      <c r="AB80" s="8"/>
+      <c r="AC80" s="8"/>
+      <c r="AD80" s="8"/>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B81">
         <f>AVERAGE(B63:Q78)</f>
         <v>-1.686393480216492E-4</v>
       </c>
       <c r="C81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D81">
         <f>MEDIAN(B63:Q78)</f>
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F81">
         <f>MIN(B63:Q78)</f>
         <v>-3.1668700659618665</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H81">
         <f>MAX(B63:Q78)</f>
         <v>4.2931264533427349</v>
       </c>
       <c r="I81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J81" cm="1">
         <f t="array" ref="J81">MIN(IF(B63:P77&lt;&gt;0,ABS(B63:P77)))</f>
         <v>7.3735659563563261E-3</v>
       </c>
       <c r="K81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L81" cm="1">
         <f t="array" ref="L81">MAX(ABS(B63:Q78))</f>
         <v>4.2931264533427349</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T81">
         <f>AVERAGE(T63:AI78)</f>
         <v>-2.5155301628846081E-2</v>
       </c>
       <c r="U81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V81">
         <f>MEDIAN(T63:AI78)</f>
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X81">
         <f>MIN(T63:AI78)</f>
         <v>-4.6944387946323305</v>
       </c>
       <c r="Y81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z81">
         <f>MAX(T63:AI78)</f>
         <v>3.9871841006252708</v>
       </c>
       <c r="AA81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB81" cm="1">
         <f t="array" ref="AB81">MIN(IF(T63:AH77&lt;&gt;0,ABS(T63:AH77)))</f>
         <v>4.3966826350114729E-3</v>
       </c>
       <c r="AC81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD81" cm="1">
         <f t="array" ref="AD81">MAX(ABS(T63:AI78))</f>
@@ -10639,18 +10785,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A80:L80"/>
+    <mergeCell ref="S58:AD58"/>
+    <mergeCell ref="S80:AD80"/>
+    <mergeCell ref="A61:Q61"/>
+    <mergeCell ref="S61:AI61"/>
+    <mergeCell ref="A58:L58"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="S1:AI1"/>
     <mergeCell ref="A20:Q20"/>
     <mergeCell ref="S20:AI20"/>
     <mergeCell ref="A39:Q39"/>
     <mergeCell ref="S39:AI39"/>
-    <mergeCell ref="A80:L80"/>
-    <mergeCell ref="S58:AD58"/>
-    <mergeCell ref="S80:AD80"/>
-    <mergeCell ref="A61:Q61"/>
-    <mergeCell ref="S61:AI61"/>
-    <mergeCell ref="A58:L58"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:Q18">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
@@ -10694,8 +10840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB81C8E-463B-43C7-8BE4-E5AB2005F27D}">
   <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10712,7 +10858,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -10728,27 +10874,27 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="1">
+        <v>46</v>
+      </c>
+      <c r="B3" s="11">
         <v>0.82547612515048219</v>
       </c>
       <c r="C3">
         <v>0.8194464159542445</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="11">
         <v>0.78711363995202055</v>
       </c>
       <c r="E3" s="1">
@@ -10769,15 +10915,15 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="1">
+        <v>47</v>
+      </c>
+      <c r="B4" s="11">
         <v>0.59751007293279002</v>
       </c>
       <c r="C4">
         <v>2.5926486326792308</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="11">
         <v>0.61510827514440936</v>
       </c>
       <c r="E4" s="1">
@@ -10798,15 +10944,15 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="1">
+        <v>48</v>
+      </c>
+      <c r="B5" s="11">
         <v>0.57681781303767143</v>
       </c>
       <c r="C5">
         <v>0.57681781303767143</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="11">
         <v>0.56180907999486296</v>
       </c>
       <c r="E5" s="1">
@@ -10827,15 +10973,15 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="1">
+        <v>49</v>
+      </c>
+      <c r="B6" s="11">
         <v>43787</v>
       </c>
       <c r="C6">
         <v>84804</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="11">
         <v>43919</v>
       </c>
       <c r="E6" s="1">
@@ -10855,67 +11001,67 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="I8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="I8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
         <v>51</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>52</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>53</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>54</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>55</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>56</v>
-      </c>
-      <c r="O9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -11588,7 +11734,7 @@
       <c r="C25" s="3">
         <v>0.68457615963293339</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="5">
         <v>2.6457127429397818</v>
       </c>
       <c r="E25" s="3">
@@ -11609,7 +11755,7 @@
       <c r="K25">
         <v>0.68927317966882684</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="6">
         <v>2.636020255190028</v>
       </c>
       <c r="M25">
@@ -11623,67 +11769,67 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="I27" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="I27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="I28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -12356,7 +12502,7 @@
       <c r="C44" s="1">
         <v>0.66365053478803393</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="5">
         <v>1.1169745675096501</v>
       </c>
       <c r="E44" s="1">
@@ -12377,7 +12523,7 @@
       <c r="K44" s="1">
         <v>0.66736552174331265</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44" s="5">
         <v>1.1104821776074774</v>
       </c>
       <c r="M44" s="1">
@@ -12391,67 +12537,67 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="I46" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="I46" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="I47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="N47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="O47" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -13306,7 +13452,7 @@
         <f t="shared" si="4"/>
         <v>-2.092562484489946E-2</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="6">
         <f t="shared" si="4"/>
         <v>-1.5287381754301317</v>
       </c>
@@ -13333,7 +13479,7 @@
         <f t="shared" si="5"/>
         <v>-2.190765792551419E-2</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="6">
         <f t="shared" si="5"/>
         <v>-1.5255380775825507</v>
       </c>
@@ -13351,67 +13497,67 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="I65" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
+      <c r="A65" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="I65" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
         <v>40</v>
       </c>
-      <c r="B66" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
         <v>41</v>
       </c>
-      <c r="D66" t="s">
+      <c r="G66" t="s">
+        <v>42</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J66" t="s">
+        <v>61</v>
+      </c>
+      <c r="K66" t="s">
+        <v>40</v>
+      </c>
+      <c r="L66" t="s">
+        <v>43</v>
+      </c>
+      <c r="M66" t="s">
         <v>44</v>
       </c>
-      <c r="E66" t="s">
-        <v>45</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="N66" t="s">
+        <v>41</v>
+      </c>
+      <c r="O66" t="s">
         <v>42</v>
-      </c>
-      <c r="G66" t="s">
-        <v>43</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J66" t="s">
-        <v>62</v>
-      </c>
-      <c r="K66" t="s">
-        <v>41</v>
-      </c>
-      <c r="L66" t="s">
-        <v>44</v>
-      </c>
-      <c r="M66" t="s">
-        <v>45</v>
-      </c>
-      <c r="N66" t="s">
-        <v>42</v>
-      </c>
-      <c r="O66" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -13473,70 +13619,70 @@
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
+      <c r="A69" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="I70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="K70" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="L70" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="N70" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N70" s="1" t="s">
+      <c r="O70" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -13544,55 +13690,55 @@
         <v>5</v>
       </c>
       <c r="B71">
-        <f>B29-B10</f>
-        <v>-5.357430531383045E-5</v>
+        <f>J29-B29</f>
+        <v>6.3684581220910808E-3</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:G71" si="7">C29-C10</f>
-        <v>5.3577670622528828E-5</v>
+        <f t="shared" ref="C71:H71" si="7">K29-C29</f>
+        <v>-5.9810177618859761E-3</v>
       </c>
       <c r="D71">
         <f t="shared" si="7"/>
-        <v>8.1368957905780803E-5</v>
+        <v>-9.1875466195261435E-3</v>
       </c>
       <c r="E71">
         <f t="shared" si="7"/>
-        <v>-1.1566571915433421E-4</v>
+        <v>1.3517542971305252E-2</v>
       </c>
       <c r="F71">
         <f t="shared" si="7"/>
-        <v>7.4551895483665476E-5</v>
+        <v>-8.4026022886189988E-3</v>
       </c>
       <c r="G71">
-        <f t="shared" si="7"/>
-        <v>-4.2403215256836546E-6</v>
+        <f>O29-G29</f>
+        <v>6.772607446252632E-4</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J71">
-        <f>J29-J10</f>
-        <v>7.6798856320503539E-4</v>
+        <f>J10-B10</f>
+        <v>5.5468952535722149E-3</v>
       </c>
       <c r="K71">
-        <f t="shared" ref="K71:O71" si="8">K29-K10</f>
-        <v>-6.8202881516477021E-4</v>
+        <f t="shared" ref="K71:O71" si="8">K10-C10</f>
+        <v>-5.2454112760986771E-3</v>
       </c>
       <c r="L71">
         <f t="shared" si="8"/>
-        <v>-1.0588937720202862E-3</v>
+        <v>-8.0472838896000765E-3</v>
       </c>
       <c r="M71">
         <f t="shared" si="8"/>
-        <v>1.606623811213348E-3</v>
+        <v>1.179525344093757E-2</v>
       </c>
       <c r="N71">
         <f t="shared" si="8"/>
-        <v>-9.6608201244596792E-4</v>
+        <v>-7.3619683806893654E-3</v>
       </c>
       <c r="O71">
         <f t="shared" si="8"/>
-        <v>9.9112795669542564E-5</v>
+        <v>5.7390762743003698E-4</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -13600,55 +13746,55 @@
         <v>6</v>
       </c>
       <c r="B72">
-        <f t="shared" ref="B72:G72" si="9">B30-B11</f>
-        <v>-5.4201200165550023E-2</v>
+        <f t="shared" ref="B72:B86" si="9">J30-B30</f>
+        <v>1.2649215441822292E-3</v>
       </c>
       <c r="C72">
-        <f t="shared" si="9"/>
-        <v>-1.35001125032706E-2</v>
+        <f t="shared" ref="C72:C86" si="10">K30-C30</f>
+        <v>1.2823560069977896E-3</v>
       </c>
       <c r="D72">
-        <f t="shared" si="9"/>
-        <v>-1.0321181256480738E-3</v>
+        <f t="shared" ref="D72:D86" si="11">L30-D30</f>
+        <v>1.0406360689247052E-2</v>
       </c>
       <c r="E72">
-        <f t="shared" si="9"/>
-        <v>-1.9182825566761985E-3</v>
+        <f t="shared" ref="E72:E86" si="12">M30-E30</f>
+        <v>-4.9412488738000138E-3</v>
       </c>
       <c r="F72">
-        <f t="shared" si="9"/>
-        <v>-1.8408276173893512E-3</v>
+        <f t="shared" ref="F72:G86" si="13">N30-F30</f>
+        <v>-2.6137899972306644E-3</v>
       </c>
       <c r="G72">
-        <f t="shared" si="9"/>
-        <v>-2.1669693402337487E-5</v>
+        <f t="shared" si="13"/>
+        <v>1.8512276517679283E-4</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J72">
-        <f t="shared" ref="J72:O72" si="10">J30-J11</f>
-        <v>-5.5396799070321801E-2</v>
+        <f t="shared" ref="J72:J86" si="14">J11-B11</f>
+        <v>2.4605204489540067E-3</v>
       </c>
       <c r="K72">
-        <f t="shared" si="10"/>
-        <v>-1.2120478404746213E-2</v>
+        <f t="shared" ref="K72:K86" si="15">K11-C11</f>
+        <v>-9.7278091526598054E-5</v>
       </c>
       <c r="L72">
-        <f t="shared" si="10"/>
-        <v>1.5289023864895057E-3</v>
+        <f t="shared" ref="L72:L86" si="16">L11-D11</f>
+        <v>7.8453401771094722E-3</v>
       </c>
       <c r="M72">
-        <f t="shared" si="10"/>
-        <v>-2.3328029231386715E-3</v>
+        <f t="shared" ref="M72:M86" si="17">M11-E11</f>
+        <v>-4.5267285073375407E-3</v>
       </c>
       <c r="N72">
-        <f t="shared" si="10"/>
-        <v>-1.7929496105926757E-3</v>
+        <f t="shared" ref="N72:N86" si="18">N11-F11</f>
+        <v>-2.6616680040273399E-3</v>
       </c>
       <c r="O72">
-        <f t="shared" si="10"/>
-        <v>6.2966336451419913E-5</v>
+        <f t="shared" ref="O72:O86" si="19">O11-G11</f>
+        <v>1.0048673532303543E-4</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -13656,55 +13802,55 @@
         <v>7</v>
       </c>
       <c r="B73">
-        <f t="shared" ref="B73:G73" si="11">B31-B12</f>
-        <v>-3.7588753890889226E-3</v>
+        <f t="shared" si="9"/>
+        <v>-7.1470508136632138E-2</v>
       </c>
       <c r="C73">
-        <f t="shared" si="11"/>
-        <v>-1.2024261633164945E-2</v>
+        <f t="shared" si="10"/>
+        <v>-6.9619207193413857E-2</v>
       </c>
       <c r="D73">
         <f t="shared" si="11"/>
-        <v>9.5690378242310192E-3</v>
+        <v>4.3581078573320164E-2</v>
       </c>
       <c r="E73">
-        <f t="shared" si="11"/>
-        <v>1.7834800765889947E-2</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="11"/>
-        <v>-8.1290959802515772E-3</v>
+        <f t="shared" si="12"/>
+        <v>7.4129969480673408E-2</v>
+      </c>
+      <c r="F73" s="6">
+        <f t="shared" si="13"/>
+        <v>0.37858749343673814</v>
       </c>
       <c r="G73">
-        <f t="shared" si="11"/>
-        <v>3.9600952342338847E-2</v>
+        <f t="shared" ref="G73:G86" si="20">O31-G31</f>
+        <v>-3.0757352810946492E-2</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J73">
-        <f t="shared" ref="J73:O73" si="12">J31-J12</f>
-        <v>-0.1187876599708465</v>
+        <f t="shared" si="14"/>
+        <v>4.3558276445125443E-2</v>
       </c>
       <c r="K73">
-        <f t="shared" si="12"/>
-        <v>-0.1143577932480162</v>
+        <f t="shared" si="15"/>
+        <v>3.2714324421437402E-2</v>
       </c>
       <c r="L73">
-        <f t="shared" si="12"/>
-        <v>8.5252122568993727E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2102006171442543E-2</v>
       </c>
       <c r="M73">
-        <f t="shared" si="12"/>
-        <v>0.15350489683044621</v>
+        <f t="shared" si="17"/>
+        <v>-6.1540126583882859E-2</v>
       </c>
       <c r="N73">
-        <f t="shared" si="12"/>
-        <v>0.48765943097331999</v>
+        <f t="shared" si="18"/>
+        <v>-0.11720103351683342</v>
       </c>
       <c r="O73">
-        <f t="shared" si="12"/>
-        <v>1.9839907731252104E-2</v>
+        <f t="shared" si="19"/>
+        <v>-1.099630819985975E-2</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -13712,55 +13858,55 @@
         <v>8</v>
       </c>
       <c r="B74">
-        <f t="shared" ref="B74:G74" si="13">B32-B13</f>
-        <v>1.8899312346950525E-3</v>
+        <f t="shared" si="9"/>
+        <v>8.4977105537489273E-3</v>
       </c>
       <c r="C74">
-        <f t="shared" si="13"/>
-        <v>-1.3691459066919598E-4</v>
+        <f t="shared" si="10"/>
+        <v>5.5639182959694444E-3</v>
       </c>
       <c r="D74">
-        <f t="shared" si="13"/>
-        <v>-7.9050383546031E-4</v>
+        <f t="shared" si="11"/>
+        <v>-2.1935757928284172E-2</v>
       </c>
       <c r="E74">
-        <f t="shared" si="13"/>
-        <v>1.0645646083728977E-4</v>
+        <f t="shared" si="12"/>
+        <v>-6.2503133110974884E-3</v>
       </c>
       <c r="F74">
         <f t="shared" si="13"/>
-        <v>1.5504888823829055E-3</v>
+        <v>-3.0217111790740603E-2</v>
       </c>
       <c r="G74">
-        <f t="shared" si="13"/>
-        <v>-1.94826777864332E-3</v>
+        <f t="shared" si="20"/>
+        <v>-6.9671455484053291E-3</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J74">
-        <f t="shared" ref="J74:O74" si="14">J32-J13</f>
-        <v>2.8450032241963408E-3</v>
+        <f t="shared" si="14"/>
+        <v>7.542638564247639E-3</v>
       </c>
       <c r="K74">
-        <f t="shared" si="14"/>
-        <v>-6.021716877082639E-4</v>
+        <f t="shared" si="15"/>
+        <v>6.0291753930085124E-3</v>
       </c>
       <c r="L74">
-        <f t="shared" si="14"/>
-        <v>-2.0200398084282423E-3</v>
+        <f t="shared" si="16"/>
+        <v>-2.070622195531624E-2</v>
       </c>
       <c r="M74">
-        <f t="shared" si="14"/>
-        <v>-1.3587145061982886E-4</v>
+        <f t="shared" si="17"/>
+        <v>-6.0079853996403698E-3</v>
       </c>
       <c r="N74">
-        <f t="shared" si="14"/>
-        <v>2.9819860848360191E-3</v>
+        <f t="shared" si="18"/>
+        <v>-3.1648608993193716E-2</v>
       </c>
       <c r="O74">
-        <f t="shared" si="14"/>
-        <v>-1.8235945593985114E-3</v>
+        <f t="shared" si="19"/>
+        <v>-7.0918187676501376E-3</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -13768,55 +13914,55 @@
         <v>9</v>
       </c>
       <c r="B75">
-        <f t="shared" ref="B75:G75" si="15">B33-B14</f>
-        <v>-4.9110625347303927E-4</v>
+        <f t="shared" si="9"/>
+        <v>-2.2523448584933992E-2</v>
       </c>
       <c r="C75">
-        <f t="shared" si="15"/>
-        <v>3.37028003444928E-4</v>
+        <f t="shared" si="10"/>
+        <v>-5.1503065748687016E-3</v>
       </c>
       <c r="D75">
-        <f t="shared" si="15"/>
-        <v>-8.4745900996308077E-4</v>
+        <f t="shared" si="11"/>
+        <v>5.9822926387509745E-2</v>
       </c>
       <c r="E75">
-        <f t="shared" si="15"/>
-        <v>-1.525716613089978E-4</v>
+        <f t="shared" si="12"/>
+        <v>-3.4258828933387053E-2</v>
       </c>
       <c r="F75">
-        <f t="shared" si="15"/>
-        <v>9.8613166146477305E-4</v>
+        <f t="shared" si="13"/>
+        <v>-2.3600387446180981E-3</v>
       </c>
       <c r="G75">
-        <f t="shared" si="15"/>
-        <v>4.7607334876815788E-3</v>
+        <f t="shared" si="20"/>
+        <v>-8.6473039679597852E-2</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J75">
-        <f t="shared" ref="J75:O75" si="16">J33-J14</f>
-        <v>-6.4350905156664306E-3</v>
+        <f t="shared" si="14"/>
+        <v>-1.65794643227406E-2</v>
       </c>
       <c r="K75">
-        <f t="shared" si="16"/>
-        <v>7.8097402831360796E-3</v>
+        <f t="shared" si="15"/>
+        <v>-1.2623018854559853E-2</v>
       </c>
       <c r="L75">
         <f t="shared" si="16"/>
-        <v>3.8430882707720659E-3</v>
+        <v>5.5132379106774598E-2</v>
       </c>
       <c r="M75">
-        <f t="shared" si="16"/>
-        <v>-2.2837965645975955E-3</v>
+        <f t="shared" si="17"/>
+        <v>-3.2127604030098456E-2</v>
       </c>
       <c r="N75">
-        <f t="shared" si="16"/>
-        <v>-3.7561720702905532E-5</v>
+        <f t="shared" si="18"/>
+        <v>-1.3363453624504196E-3</v>
       </c>
       <c r="O75">
-        <f t="shared" si="16"/>
-        <v>-5.5639089010943721E-3</v>
+        <f t="shared" si="19"/>
+        <v>-7.6148397290821901E-2</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -13824,55 +13970,55 @@
         <v>10</v>
       </c>
       <c r="B76">
-        <f t="shared" ref="B76:G76" si="17">B34-B15</f>
-        <v>-6.0387239075307853E-2</v>
+        <f t="shared" si="9"/>
+        <v>9.2196175654271073E-3</v>
       </c>
       <c r="C76">
-        <f t="shared" si="17"/>
-        <v>-0.11021570666666666</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="D76">
-        <f t="shared" si="17"/>
-        <v>-5.0790476777506921E-4</v>
+        <f t="shared" si="11"/>
+        <v>-2.0008110131468637E-2</v>
       </c>
       <c r="E76">
-        <f t="shared" si="17"/>
-        <v>-2.453055762584877E-2</v>
+        <f t="shared" si="12"/>
+        <v>-3.7058575456845322E-3</v>
       </c>
       <c r="F76">
-        <f t="shared" si="17"/>
-        <v>2.5160414340413828E-3</v>
+        <f t="shared" si="13"/>
+        <v>7.3249151658122402E-3</v>
       </c>
       <c r="G76">
-        <f t="shared" si="17"/>
-        <v>-0.78617424617226084</v>
+        <f t="shared" si="20"/>
+        <v>1.1680371264315426E-3</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J76">
-        <f t="shared" ref="J76:O76" si="18">J34-J15</f>
-        <v>-7.0316192845210512E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.9148571335329767E-2</v>
       </c>
       <c r="K76">
-        <f t="shared" si="18"/>
-        <v>-0.11021570666666666</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="L76">
-        <f t="shared" si="18"/>
-        <v>-7.0918397405596023E-3</v>
+        <f t="shared" si="16"/>
+        <v>-1.3424175158684104E-2</v>
       </c>
       <c r="M76">
-        <f t="shared" si="18"/>
-        <v>-4.62749394280495E-2</v>
+        <f t="shared" si="17"/>
+        <v>1.8038524256516197E-2</v>
       </c>
       <c r="N76">
         <f t="shared" si="18"/>
-        <v>-1.3336366657177301E-3</v>
+        <v>1.1174593265571353E-2</v>
       </c>
       <c r="O76">
-        <f t="shared" si="18"/>
-        <v>-0.7811307519970655</v>
+        <f t="shared" si="19"/>
+        <v>-3.8754570487637974E-3</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -13880,55 +14026,55 @@
         <v>11</v>
       </c>
       <c r="B77">
-        <f t="shared" ref="B77:G77" si="19">B35-B16</f>
-        <v>2.2175219868797447E-3</v>
+        <f t="shared" si="9"/>
+        <v>-0.10686588756832627</v>
       </c>
       <c r="C77">
-        <f t="shared" si="19"/>
-        <v>1.9091633819672271E-3</v>
+        <f t="shared" si="10"/>
+        <v>3.6336273617607606E-3</v>
       </c>
       <c r="D77">
-        <f t="shared" si="19"/>
-        <v>2.8036798510577832E-4</v>
+        <f t="shared" si="11"/>
+        <v>2.0022047281749167E-3</v>
       </c>
       <c r="E77">
-        <f t="shared" si="19"/>
-        <v>-2.2349699872693529E-3</v>
+        <f t="shared" si="12"/>
+        <v>6.4243391228045121E-2</v>
       </c>
       <c r="F77">
-        <f t="shared" si="19"/>
-        <v>1.0960168806395387E-4</v>
+        <f t="shared" si="13"/>
+        <v>-2.4744255200432996E-2</v>
       </c>
       <c r="G77">
-        <f t="shared" si="19"/>
-        <v>7.6012678898546016E-4</v>
+        <f t="shared" si="20"/>
+        <v>-3.6012048452778722E-2</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J77">
-        <f t="shared" ref="J77:O77" si="20">J35-J16</f>
-        <v>1.0931744269610855E-2</v>
+        <f t="shared" si="14"/>
+        <v>-0.11558010985105738</v>
       </c>
       <c r="K77">
-        <f t="shared" si="20"/>
-        <v>6.6827249080558815E-3</v>
+        <f t="shared" si="15"/>
+        <v>-1.1399341643278937E-3</v>
       </c>
       <c r="L77">
-        <f t="shared" si="20"/>
-        <v>2.7887766729790542E-3</v>
+        <f t="shared" si="16"/>
+        <v>-5.0620395969835918E-4</v>
       </c>
       <c r="M77">
-        <f t="shared" si="20"/>
-        <v>-1.1060816861784617E-2</v>
+        <f t="shared" si="17"/>
+        <v>7.3069238102560385E-2</v>
       </c>
       <c r="N77">
-        <f t="shared" si="20"/>
-        <v>9.833273932299269E-4</v>
+        <f t="shared" si="18"/>
+        <v>-2.5617980905598969E-2</v>
       </c>
       <c r="O77">
-        <f t="shared" si="20"/>
-        <v>4.7683702664896854E-3</v>
+        <f t="shared" si="19"/>
+        <v>-4.0020291930282947E-2</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -13936,55 +14082,55 @@
         <v>12</v>
       </c>
       <c r="B78">
-        <f t="shared" ref="B78:G78" si="21">B36-B17</f>
-        <v>4.0301456360158916E-4</v>
+        <f t="shared" si="9"/>
+        <v>4.2835400237238308E-3</v>
       </c>
       <c r="C78">
-        <f t="shared" si="21"/>
-        <v>-7.769879695876114E-4</v>
+        <f t="shared" si="10"/>
+        <v>2.2855614155065845E-2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="21"/>
-        <v>-7.2250360245129652E-4</v>
+        <f t="shared" si="12"/>
+        <v>-5.9789496037909728E-4</v>
       </c>
       <c r="F78">
-        <f t="shared" si="21"/>
-        <v>1.7791271067585379E-4</v>
+        <f t="shared" si="13"/>
+        <v>-5.6651860077556737E-3</v>
       </c>
       <c r="G78">
-        <f t="shared" si="21"/>
-        <v>-2.1338513882418475E-4</v>
+        <f t="shared" si="20"/>
+        <v>1.6066366008680139E-2</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J78">
-        <f t="shared" ref="J78:O78" si="22">J36-J17</f>
-        <v>-1.3535429288822898E-3</v>
+        <f t="shared" si="14"/>
+        <v>6.0400975162077097E-3</v>
       </c>
       <c r="K78">
-        <f t="shared" si="22"/>
-        <v>-1.4831791719516485E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.3561805357429882E-2</v>
       </c>
       <c r="L78">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M78">
-        <f t="shared" si="22"/>
-        <v>1.616841760274379E-4</v>
+        <f t="shared" si="17"/>
+        <v>-1.4820827388578317E-3</v>
       </c>
       <c r="N78">
-        <f t="shared" si="22"/>
-        <v>1.9798422213309075E-3</v>
+        <f t="shared" si="18"/>
+        <v>-7.4671155184107274E-3</v>
       </c>
       <c r="O78">
-        <f t="shared" si="22"/>
-        <v>1.9042051127090565E-3</v>
+        <f t="shared" si="19"/>
+        <v>1.3948775757146897E-2</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -13992,55 +14138,55 @@
         <v>13</v>
       </c>
       <c r="B79">
-        <f t="shared" ref="B79:G79" si="23">B37-B18</f>
-        <v>-2.3364022016871822E-3</v>
+        <f t="shared" si="9"/>
+        <v>6.0880346855816114E-2</v>
       </c>
       <c r="C79">
-        <f t="shared" si="23"/>
-        <v>5.6371337185601167E-3</v>
+        <f t="shared" si="10"/>
+        <v>4.517989352911056E-2</v>
       </c>
       <c r="D79">
-        <f t="shared" si="23"/>
-        <v>7.1612677903742927E-4</v>
+        <f t="shared" si="11"/>
+        <v>-0.12722765864391272</v>
       </c>
       <c r="E79">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F79">
-        <f t="shared" si="23"/>
-        <v>-6.1722665531787069E-3</v>
+        <f t="shared" si="13"/>
+        <v>-4.9439438747211906E-3</v>
       </c>
       <c r="G79">
-        <f t="shared" si="23"/>
-        <v>-7.6077244914155573E-3</v>
+        <f t="shared" si="20"/>
+        <v>-9.0897352829379496E-2</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J79">
-        <f t="shared" ref="J79:O79" si="24">J37-J18</f>
-        <v>-1.899728367605702E-2</v>
+        <f t="shared" si="14"/>
+        <v>7.7541228330185952E-2</v>
       </c>
       <c r="K79">
-        <f t="shared" si="24"/>
-        <v>-7.6855523531738079E-4</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="24"/>
-        <v>3.0419140485935525E-2</v>
+        <f t="shared" si="15"/>
+        <v>5.1585582482988057E-2</v>
+      </c>
+      <c r="L79" s="6">
+        <f t="shared" si="16"/>
+        <v>-0.15693067235081082</v>
       </c>
       <c r="M79">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N79">
-        <f t="shared" si="24"/>
-        <v>4.6872857414652636E-3</v>
+        <f t="shared" si="18"/>
+        <v>-1.5803496169365161E-2</v>
       </c>
       <c r="O79">
-        <f t="shared" si="24"/>
-        <v>1.1372857561122163E-2</v>
+        <f t="shared" si="19"/>
+        <v>-0.10987793488191722</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -14048,55 +14194,55 @@
         <v>14</v>
       </c>
       <c r="B80">
-        <f t="shared" ref="B80:G80" si="25">B38-B19</f>
-        <v>1.0945052124865517E-3</v>
+        <f t="shared" si="9"/>
+        <v>-7.14289024424275E-4</v>
       </c>
       <c r="C80">
-        <f t="shared" si="25"/>
-        <v>-7.1223092509598018E-4</v>
+        <f t="shared" si="10"/>
+        <v>2.9510948535904413E-2</v>
       </c>
       <c r="D80">
-        <f t="shared" si="25"/>
-        <v>1.4001424711828081E-3</v>
+        <f t="shared" si="11"/>
+        <v>-5.839755452836437E-3</v>
       </c>
       <c r="E80">
-        <f t="shared" si="25"/>
-        <v>8.5745992616241828E-3</v>
+        <f t="shared" si="12"/>
+        <v>-5.1313700514733274E-2</v>
       </c>
       <c r="F80">
-        <f t="shared" si="25"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G80">
-        <f t="shared" si="25"/>
-        <v>-1.7909545811446437E-3</v>
+        <f t="shared" si="20"/>
+        <v>1.1489247375482736E-2</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J80">
-        <f t="shared" ref="J80:O80" si="26">J38-J19</f>
-        <v>3.9177097541233108E-3</v>
+        <f t="shared" si="14"/>
+        <v>-3.537493566061034E-3</v>
       </c>
       <c r="K80">
-        <f t="shared" si="26"/>
-        <v>-8.3223322350252094E-3</v>
+        <f t="shared" si="15"/>
+        <v>3.7121049845833642E-2</v>
       </c>
       <c r="L80">
-        <f t="shared" si="26"/>
-        <v>-1.1725011714405764E-3</v>
+        <f t="shared" si="16"/>
+        <v>-3.2671118102130525E-3</v>
       </c>
       <c r="M80">
-        <f t="shared" si="26"/>
-        <v>1.1152858477518457E-2</v>
+        <f t="shared" si="17"/>
+        <v>-5.3891959730627548E-2</v>
       </c>
       <c r="N80">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O80">
-        <f t="shared" si="26"/>
-        <v>2.447299781737855E-3</v>
+        <f t="shared" si="19"/>
+        <v>7.2509930126002375E-3</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -14104,55 +14250,55 @@
         <v>15</v>
       </c>
       <c r="B81">
-        <f t="shared" ref="B81:G81" si="27">B39-B20</f>
-        <v>-5.5757041146620168E-4</v>
+        <f t="shared" si="9"/>
+        <v>-4.3808648011165352E-2</v>
       </c>
       <c r="C81">
-        <f t="shared" si="27"/>
-        <v>1.0323236038000116E-3</v>
+        <f t="shared" si="10"/>
+        <v>3.4039210443320866E-2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="27"/>
-        <v>2.2551758429075752E-3</v>
+        <f t="shared" si="11"/>
+        <v>-1.5125829675527447E-2</v>
       </c>
       <c r="E81">
-        <f t="shared" si="27"/>
-        <v>1.7040279783390733E-3</v>
+        <f t="shared" si="12"/>
+        <v>-6.2072502866653279E-3</v>
       </c>
       <c r="F81">
-        <f t="shared" si="27"/>
-        <v>1.0186265555404361E-2</v>
+        <f t="shared" si="13"/>
+        <v>-6.8954395073152541E-2</v>
       </c>
       <c r="G81">
-        <f t="shared" si="27"/>
-        <v>4.1588927881636151E-4</v>
+        <f t="shared" si="20"/>
+        <v>2.8444524711587205E-3</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J81">
-        <f t="shared" ref="J81:O81" si="28">J39-J20</f>
-        <v>-5.8668999838220603E-3</v>
+        <f t="shared" si="14"/>
+        <v>-3.8499318438809493E-2</v>
       </c>
       <c r="K81">
-        <f t="shared" si="28"/>
-        <v>-2.9339029208387324E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.4410563255508202E-2</v>
       </c>
       <c r="L81">
-        <f t="shared" si="28"/>
-        <v>8.875559471997474E-3</v>
+        <f t="shared" si="16"/>
+        <v>-2.1746213304617346E-2</v>
       </c>
       <c r="M81">
-        <f t="shared" si="28"/>
-        <v>5.6903233270386988E-3</v>
+        <f t="shared" si="17"/>
+        <v>-1.0193545635364953E-2</v>
       </c>
       <c r="N81">
-        <f t="shared" si="28"/>
-        <v>-7.0364080910033266E-2</v>
+        <f t="shared" si="18"/>
+        <v>1.1595951392285087E-2</v>
       </c>
       <c r="O81">
-        <f t="shared" si="28"/>
-        <v>-1.5713345446459748E-3</v>
+        <f t="shared" si="19"/>
+        <v>4.8316762946210567E-3</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -14160,55 +14306,55 @@
         <v>16</v>
       </c>
       <c r="B82">
-        <f t="shared" ref="B82:G82" si="29">B40-B21</f>
-        <v>-5.7914873203590567E-4</v>
+        <f t="shared" si="9"/>
+        <v>-7.8522188767482515E-4</v>
       </c>
       <c r="C82">
-        <f t="shared" si="29"/>
-        <v>2.1668206581061389E-3</v>
+        <f t="shared" si="10"/>
+        <v>-9.0846876909465857E-3</v>
       </c>
       <c r="D82">
-        <f t="shared" si="29"/>
-        <v>2.304698200306099E-3</v>
+        <f t="shared" si="11"/>
+        <v>4.2050188124199694E-3</v>
       </c>
       <c r="E82">
-        <f t="shared" si="29"/>
-        <v>-1.7771952729958573E-3</v>
+        <f t="shared" si="12"/>
+        <v>2.0623843279932996E-3</v>
       </c>
       <c r="F82">
-        <f t="shared" si="29"/>
-        <v>-6.5895407829374975E-4</v>
+        <f t="shared" si="13"/>
+        <v>-2.7098043921596204E-2</v>
       </c>
       <c r="G82">
-        <f t="shared" si="29"/>
-        <v>-3.5741334388374457E-3</v>
+        <f t="shared" si="20"/>
+        <v>1.9589048994160807E-2</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J82">
-        <f t="shared" ref="J82:O82" si="30">J40-J21</f>
-        <v>1.520211118021253E-4</v>
+        <f t="shared" si="14"/>
+        <v>-1.5163917315128561E-3</v>
       </c>
       <c r="K82">
-        <f t="shared" si="30"/>
-        <v>4.7949790036705409E-4</v>
+        <f t="shared" si="15"/>
+        <v>-7.3973649332075009E-3</v>
       </c>
       <c r="L82">
-        <f t="shared" si="30"/>
-        <v>5.9522657178350258E-3</v>
+        <f t="shared" si="16"/>
+        <v>5.5745129489104261E-4</v>
       </c>
       <c r="M82">
-        <f t="shared" si="30"/>
-        <v>-3.4876274729163936E-3</v>
+        <f t="shared" si="17"/>
+        <v>3.7728165279138359E-3</v>
       </c>
       <c r="N82">
-        <f t="shared" si="30"/>
-        <v>2.2661977210174378E-3</v>
+        <f t="shared" si="18"/>
+        <v>-3.0023195720907392E-2</v>
       </c>
       <c r="O82">
-        <f t="shared" si="30"/>
-        <v>-3.1380603513031513E-4</v>
+        <f t="shared" si="19"/>
+        <v>1.6328721590453676E-2</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -14216,55 +14362,55 @@
         <v>17</v>
       </c>
       <c r="B83">
-        <f t="shared" ref="B83:G83" si="31">B41-B22</f>
-        <v>5.0483255142930727E-3</v>
+        <f t="shared" si="9"/>
+        <v>-1.3897315956656886E-3</v>
       </c>
       <c r="C83">
-        <f t="shared" si="31"/>
-        <v>-9.9728592861243137E-2</v>
+        <f t="shared" si="10"/>
+        <v>-2.1527984892324215E-2</v>
       </c>
       <c r="D83">
-        <f t="shared" si="31"/>
-        <v>6.9552017737637972E-3</v>
+        <f t="shared" si="11"/>
+        <v>4.9190595278753024E-3</v>
       </c>
       <c r="E83">
-        <f t="shared" si="31"/>
-        <v>-1.5902521044331874E-2</v>
+        <f t="shared" si="12"/>
+        <v>8.991180469544946E-3</v>
       </c>
       <c r="F83">
-        <f t="shared" si="31"/>
-        <v>-6.7859079149962254E-4</v>
+        <f t="shared" si="13"/>
+        <v>-1.0175999862253593E-3</v>
       </c>
       <c r="G83">
-        <f t="shared" si="31"/>
-        <v>-1.4853367719969146E-4</v>
+        <f t="shared" si="20"/>
+        <v>7.005022424126206E-3</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J83">
-        <f t="shared" ref="J83:O83" si="32">J41-J22</f>
-        <v>9.4001067173667963E-3</v>
+        <f t="shared" si="14"/>
+        <v>-5.7415127987394121E-3</v>
       </c>
       <c r="K83">
-        <f t="shared" si="32"/>
-        <v>-0.10239329099464234</v>
+        <f t="shared" si="15"/>
+        <v>-1.8863286758925013E-2</v>
       </c>
       <c r="L83">
-        <f t="shared" si="32"/>
-        <v>1.1853139519659495E-2</v>
+        <f t="shared" si="16"/>
+        <v>2.1121781979605014E-5</v>
       </c>
       <c r="M83">
-        <f t="shared" si="32"/>
-        <v>-2.0968134232962926E-2</v>
+        <f t="shared" si="17"/>
+        <v>1.4056793658175998E-2</v>
       </c>
       <c r="N83">
-        <f t="shared" si="32"/>
-        <v>2.2787351752979745E-3</v>
+        <f t="shared" si="18"/>
+        <v>-3.9749259530229564E-3</v>
       </c>
       <c r="O83">
-        <f t="shared" si="32"/>
-        <v>1.3161918520645521E-3</v>
+        <f t="shared" si="19"/>
+        <v>5.5402968948619624E-3</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -14272,55 +14418,55 @@
         <v>18</v>
       </c>
       <c r="B84">
-        <f t="shared" ref="B84:G84" si="33">B42-B23</f>
-        <v>-2.2693880484392359E-4</v>
+        <f t="shared" si="9"/>
+        <v>-1.4503693426741182E-2</v>
       </c>
       <c r="C84">
-        <f t="shared" si="33"/>
-        <v>-1.0956456528664615E-3</v>
+        <f t="shared" si="10"/>
+        <v>3.9147397951611596E-2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="33"/>
-        <v>8.1293526223266133E-3</v>
+        <f t="shared" si="11"/>
+        <v>-3.827595828721142E-2</v>
       </c>
       <c r="E84">
-        <f t="shared" si="33"/>
-        <v>-3.4062776063813471E-3</v>
+        <f t="shared" si="12"/>
+        <v>2.5044519950075728E-2</v>
       </c>
       <c r="F84">
-        <f t="shared" si="33"/>
-        <v>5.2940374461907247E-5</v>
+        <f t="shared" si="13"/>
+        <v>-1.3061061919886763E-3</v>
       </c>
       <c r="G84">
-        <f t="shared" si="33"/>
-        <v>3.8968728361101768E-3</v>
+        <f t="shared" si="20"/>
+        <v>-5.5923440701163007E-2</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J84">
-        <f t="shared" ref="J84:O84" si="34">J42-J23</f>
-        <v>-1.7342191098234094E-3</v>
+        <f t="shared" si="14"/>
+        <v>-1.2996413121761696E-2</v>
       </c>
       <c r="K84">
-        <f t="shared" si="34"/>
-        <v>2.3430844249948679E-3</v>
+        <f t="shared" si="15"/>
+        <v>3.5708667873750266E-2</v>
       </c>
       <c r="L84">
-        <f t="shared" si="34"/>
-        <v>2.2775057829259593E-3</v>
+        <f t="shared" si="16"/>
+        <v>-3.2424111447810766E-2</v>
       </c>
       <c r="M84">
-        <f t="shared" si="34"/>
-        <v>-1.94330842370527E-4</v>
+        <f t="shared" si="17"/>
+        <v>2.1832573186064907E-2</v>
       </c>
       <c r="N84">
-        <f t="shared" si="34"/>
-        <v>-4.0385884803693095E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.7854226628425405E-3</v>
       </c>
       <c r="O84">
-        <f t="shared" si="34"/>
-        <v>-1.3922167150277609E-3</v>
+        <f t="shared" si="19"/>
+        <v>-5.063435115002507E-2</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -14328,55 +14474,55 @@
         <v>19</v>
       </c>
       <c r="B85">
-        <f t="shared" ref="B85:G85" si="35">B43-B24</f>
-        <v>-5.575647979532028E-3</v>
+        <f t="shared" si="9"/>
+        <v>-4.2784087833150908E-3</v>
       </c>
       <c r="C85">
-        <f t="shared" si="35"/>
-        <v>-1.1190419071518853E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.2628183909355606E-2</v>
       </c>
       <c r="D85">
-        <f t="shared" si="35"/>
-        <v>-0.21712254176472334</v>
+        <f t="shared" si="11"/>
+        <v>4.1569076165959284E-3</v>
       </c>
       <c r="E85">
-        <f t="shared" si="35"/>
-        <v>-2.0755931908168712E-2</v>
+        <f t="shared" si="12"/>
+        <v>-3.4613153434139066E-2</v>
       </c>
       <c r="F85">
-        <f t="shared" si="35"/>
-        <v>9.6234229981839725E-5</v>
+        <f t="shared" si="13"/>
+        <v>1.2717149765328006E-2</v>
       </c>
       <c r="G85">
-        <f t="shared" si="35"/>
-        <v>-1.0688665631857885E-2</v>
+        <f t="shared" si="20"/>
+        <v>-2.8758860488424021E-2</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J85">
-        <f t="shared" ref="J85:O85" si="36">J43-J24</f>
-        <v>-5.219696829205589E-3</v>
+        <f t="shared" si="14"/>
+        <v>-4.6343599336415298E-3</v>
       </c>
       <c r="K85">
-        <f t="shared" si="36"/>
-        <v>-5.7383171683632606E-3</v>
+        <f t="shared" si="15"/>
+        <v>7.176082006200013E-3</v>
       </c>
       <c r="L85">
-        <f t="shared" si="36"/>
-        <v>-0.22885331978241918</v>
+        <f t="shared" si="16"/>
+        <v>1.588768563429177E-2</v>
       </c>
       <c r="M85">
-        <f t="shared" si="36"/>
-        <v>-2.1406705561098804E-2</v>
+        <f t="shared" si="17"/>
+        <v>-3.3962379781208973E-2</v>
       </c>
       <c r="N85">
-        <f t="shared" si="36"/>
-        <v>5.9297939836455704E-3</v>
+        <f t="shared" si="18"/>
+        <v>6.8835900116642756E-3</v>
       </c>
       <c r="O85">
-        <f t="shared" si="36"/>
-        <v>-1.1670334706663232E-2</v>
+        <f t="shared" si="19"/>
+        <v>-2.7777191413618674E-2</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -14384,177 +14530,177 @@
         <v>20</v>
       </c>
       <c r="B86">
-        <f t="shared" ref="B86:G86" si="37">B44-B25</f>
-        <v>-8.7219719012084695E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.627417405977738E-2</v>
       </c>
       <c r="C86">
-        <f t="shared" si="37"/>
-        <v>-2.092562484489946E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.7149869552787207E-3</v>
       </c>
       <c r="D86">
-        <f t="shared" si="37"/>
-        <v>-1.5287381754301317</v>
+        <f t="shared" si="11"/>
+        <v>-6.4923899021727127E-3</v>
       </c>
       <c r="E86">
-        <f t="shared" si="37"/>
-        <v>2.0827179934344908E-2</v>
+        <f t="shared" si="12"/>
+        <v>-8.3709678492649431E-3</v>
       </c>
       <c r="F86">
-        <f t="shared" si="37"/>
-        <v>3.3109289509155371E-2</v>
+        <f t="shared" si="13"/>
+        <v>-6.5623908448851909E-3</v>
       </c>
       <c r="G86">
-        <f t="shared" si="37"/>
-        <v>-0.78180864249999971</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J86">
-        <f t="shared" ref="J86:O86" si="38">J44-J25</f>
-        <v>-8.9258220982052716E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.8312676029745401E-2</v>
       </c>
       <c r="K86">
-        <f t="shared" si="38"/>
-        <v>-2.190765792551419E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.6970200358934511E-3</v>
       </c>
       <c r="L86">
-        <f t="shared" si="38"/>
-        <v>-1.5255380775825507</v>
+        <f t="shared" si="16"/>
+        <v>-9.692487749753731E-3</v>
       </c>
       <c r="M86">
-        <f t="shared" si="38"/>
-        <v>2.106536241730339E-2</v>
+        <f t="shared" si="17"/>
+        <v>-8.6091503322234253E-3</v>
       </c>
       <c r="N86">
-        <f t="shared" si="38"/>
-        <v>3.288201653114553E-2</v>
+        <f t="shared" si="18"/>
+        <v>-6.3351178668753505E-3</v>
       </c>
       <c r="O86">
-        <f t="shared" si="38"/>
-        <v>-0.78180864249999971</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="I88" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
+      <c r="A88" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="I88" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" t="s">
         <v>40</v>
       </c>
-      <c r="B89" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>43</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
         <v>41</v>
       </c>
-      <c r="D89" t="s">
+      <c r="G89" t="s">
+        <v>42</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J89" t="s">
+        <v>61</v>
+      </c>
+      <c r="K89" t="s">
+        <v>40</v>
+      </c>
+      <c r="L89" t="s">
+        <v>43</v>
+      </c>
+      <c r="M89" t="s">
         <v>44</v>
       </c>
-      <c r="E89" t="s">
-        <v>45</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="N89" t="s">
+        <v>41</v>
+      </c>
+      <c r="O89" t="s">
         <v>42</v>
-      </c>
-      <c r="G89" t="s">
-        <v>43</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J89" t="s">
-        <v>62</v>
-      </c>
-      <c r="K89" t="s">
-        <v>41</v>
-      </c>
-      <c r="L89" t="s">
-        <v>44</v>
-      </c>
-      <c r="M89" t="s">
-        <v>45</v>
-      </c>
-      <c r="N89" t="s">
-        <v>42</v>
-      </c>
-      <c r="O89" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <f>AVERAGE(B71:G86)</f>
-        <v>-3.8717576899292415E-2</v>
+        <v>-2.2150875104731882E-3</v>
       </c>
       <c r="B90">
         <f>STDEV(B71:G86)</f>
-        <v>0.19228132695090849</v>
+        <v>5.1149694532230068E-2</v>
       </c>
       <c r="C90">
         <f>MEDIAN(B71:G86)</f>
-        <v>-1.4272413393444372E-4</v>
+        <v>-7.4975545604955007E-4</v>
       </c>
       <c r="D90">
         <f>MIN(B71:G86)</f>
-        <v>-1.5287381754301317</v>
+        <v>-0.12722765864391272</v>
       </c>
       <c r="E90">
         <f>MAX(B71:G86)</f>
-        <v>3.9600952342338847E-2</v>
+        <v>0.37858749343673814</v>
       </c>
       <c r="F90">
         <f>G71*-1</f>
-        <v>4.2403215256836546E-6</v>
+        <v>-6.772607446252632E-4</v>
       </c>
       <c r="G90" cm="1">
         <f t="array" ref="G90">MAX(ABS(B71:G86))</f>
-        <v>1.5287381754301317</v>
+        <v>0.37858749343673814</v>
       </c>
       <c r="I90">
         <f>AVERAGE(J71:O86)</f>
-        <v>-3.4835645155108931E-2</v>
+        <v>-6.0970192546566651E-3</v>
       </c>
       <c r="J90">
         <f>STDEV(J71:O86)</f>
-        <v>0.20087450481461985</v>
+        <v>3.5517594953098808E-2</v>
       </c>
       <c r="K90">
         <f>MEDIAN(J71:O86)</f>
-        <v>-2.5406843875042107E-4</v>
+        <v>-1.4092140506541256E-3</v>
       </c>
       <c r="L90">
         <f>MIN(J71:O86)</f>
-        <v>-1.5255380775825507</v>
+        <v>-0.15693067235081082</v>
       </c>
       <c r="M90">
         <f>MAX(J71:O86)</f>
-        <v>0.48765943097331999</v>
+        <v>7.7541228330185952E-2</v>
       </c>
       <c r="N90">
         <f>O72</f>
-        <v>6.2966336451419913E-5</v>
+        <v>1.0048673532303543E-4</v>
       </c>
       <c r="O90" cm="1">
         <f t="array" ref="O90">MAX(ABS(J71:O86))</f>
-        <v>1.5255380775825507</v>
+        <v>0.15693067235081082</v>
       </c>
     </row>
   </sheetData>
@@ -14586,6 +14732,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="070f1269-45c1-4463-99ba-5dc4e57c7dff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DB5B7ED115EF04980BBFAFC51672553" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b8b27a01019c8f1f5f85cfa193824b14">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="070f1269-45c1-4463-99ba-5dc4e57c7dff" xmlns:ns4="7bf50b4b-6300-445a-aea1-306a2291592c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="63af16f05df1fbe665c061d280c7c480" ns3:_="" ns4:_="">
     <xsd:import namespace="070f1269-45c1-4463-99ba-5dc4e57c7dff"/>
@@ -14768,14 +14922,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="070f1269-45c1-4463-99ba-5dc4e57c7dff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D86A451-E88F-4AAB-A956-7F6F555EE94E}">
   <ds:schemaRefs>
@@ -14785,6 +14931,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20FA2A50-E890-4E3A-83BB-3BB40B247E64}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="7bf50b4b-6300-445a-aea1-306a2291592c"/>
+    <ds:schemaRef ds:uri="070f1269-45c1-4463-99ba-5dc4e57c7dff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72507013-1949-460D-8B23-A89C54AA7D8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14801,21 +14964,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20FA2A50-E890-4E3A-83BB-3BB40B247E64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="7bf50b4b-6300-445a-aea1-306a2291592c"/>
-    <ds:schemaRef ds:uri="070f1269-45c1-4463-99ba-5dc4e57c7dff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>